--- a/integ_tests/partitioning/traclus_line_partitioning_integration_test_fixture_math.xlsx
+++ b/integ_tests/partitioning/traclus_line_partitioning_integration_test_fixture_math.xlsx
@@ -577,7 +577,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
